--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,91 +43,94 @@
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -136,246 +139,240 @@
     <t>empty</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>easy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>dear</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>growth</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>customers</t>
+    <t>want</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>retail</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>stock</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
@@ -385,19 +382,16 @@
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -755,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -874,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -892,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>44</v>
@@ -901,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -924,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -942,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -966,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -998,13 +992,13 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9333333333333333</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1027,10 +1021,10 @@
         <v>0.75</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1042,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1074,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7226027397260274</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1092,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9130434782608695</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1116,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1124,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6923076923076923</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1142,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1198,13 +1192,13 @@
         <v>50</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1216,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1224,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1242,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1274,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6052631578947368</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1292,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1316,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1324,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5666666666666667</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1342,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K13">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1366,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1374,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1392,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1416,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,10 +1421,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1442,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8297872340425532</v>
+        <v>0.84375</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1466,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1474,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1492,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>56</v>
@@ -1524,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5128205128205128</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1542,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.8148148148148148</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1566,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1574,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4864864864864865</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1592,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1616,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1648,13 +1642,13 @@
         <v>59</v>
       </c>
       <c r="K19">
-        <v>0.8083333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1666,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1674,7 +1668,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4102564102564102</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -1692,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1716,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1724,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4054054054054054</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,13 +1742,13 @@
         <v>61</v>
       </c>
       <c r="K21">
-        <v>0.7857142857142857</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1766,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1774,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1792,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7843137254901961</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1816,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1824,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.392156862745098</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1842,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K23">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1866,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1874,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.375968992248062</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C24">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1892,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
@@ -1924,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3691275167785235</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1942,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K25">
-        <v>0.7676056338028169</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L25">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1966,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1974,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3611111111111111</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1992,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>66</v>
@@ -2024,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3246753246753247</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2042,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K27">
-        <v>0.7391304347826086</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2066,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2074,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3068783068783069</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C28">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2092,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K28">
-        <v>0.725</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L28">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2116,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2124,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2941176470588235</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2142,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K29">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2166,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2174,13 +2168,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2711864406779661</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2192,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K30">
-        <v>0.6944444444444444</v>
+        <v>0.71875</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2216,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2224,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2545454545454545</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2242,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K31">
-        <v>0.6702127659574468</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2266,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2274,7 +2268,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2372881355932203</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C32">
         <v>14</v>
@@ -2292,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K32">
-        <v>0.66</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2316,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2324,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2261904761904762</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2342,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K33">
-        <v>0.6458333333333334</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2366,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2374,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2392,19 +2386,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K34">
-        <v>0.6370757180156658</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L34">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2416,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>139</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2424,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1625</v>
+        <v>0.2</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2442,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K35">
-        <v>0.6176470588235294</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2466,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2474,37 +2468,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1233243967828418</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K36">
-        <v>0.6071428571428571</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2516,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,10 +2521,10 @@
         <v>0.6</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2542,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2550,13 +2544,13 @@
         <v>78</v>
       </c>
       <c r="K38">
-        <v>0.5909090909090909</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2568,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2576,13 +2570,13 @@
         <v>79</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2594,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2602,13 +2596,13 @@
         <v>80</v>
       </c>
       <c r="K40">
-        <v>0.5617977528089888</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L40">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M40">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2620,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2628,13 +2622,13 @@
         <v>81</v>
       </c>
       <c r="K41">
-        <v>0.5581395348837209</v>
+        <v>0.575</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2646,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2654,13 +2648,13 @@
         <v>82</v>
       </c>
       <c r="K42">
-        <v>0.5529411764705883</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L42">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="M42">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2672,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>152</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2680,13 +2674,13 @@
         <v>83</v>
       </c>
       <c r="K43">
-        <v>0.5357142857142857</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2698,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2706,13 +2700,13 @@
         <v>84</v>
       </c>
       <c r="K44">
-        <v>0.5333333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2724,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2732,13 +2726,13 @@
         <v>85</v>
       </c>
       <c r="K45">
-        <v>0.5288135593220339</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L45">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2750,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2758,13 +2752,13 @@
         <v>86</v>
       </c>
       <c r="K46">
-        <v>0.5185185185185185</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2776,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2784,13 +2778,13 @@
         <v>87</v>
       </c>
       <c r="K47">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2802,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2810,13 +2804,13 @@
         <v>88</v>
       </c>
       <c r="K48">
-        <v>0.4615384615384616</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2828,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2836,25 +2830,25 @@
         <v>89</v>
       </c>
       <c r="K49">
-        <v>0.4602510460251046</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L49">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2862,13 +2856,13 @@
         <v>90</v>
       </c>
       <c r="K50">
-        <v>0.4571428571428571</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2880,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2888,13 +2882,13 @@
         <v>91</v>
       </c>
       <c r="K51">
-        <v>0.4545454545454545</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2906,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2914,25 +2908,25 @@
         <v>92</v>
       </c>
       <c r="K52">
-        <v>0.4520547945205479</v>
+        <v>0.484375</v>
       </c>
       <c r="L52">
+        <v>31</v>
+      </c>
+      <c r="M52">
+        <v>31</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>33</v>
-      </c>
-      <c r="M52">
-        <v>33</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>40</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2940,13 +2934,13 @@
         <v>93</v>
       </c>
       <c r="K53">
-        <v>0.4516129032258064</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2958,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2966,13 +2960,13 @@
         <v>94</v>
       </c>
       <c r="K54">
-        <v>0.4285714285714285</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2984,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2992,13 +2986,13 @@
         <v>95</v>
       </c>
       <c r="K55">
-        <v>0.4102564102564102</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L55">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3010,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3018,13 +3012,13 @@
         <v>96</v>
       </c>
       <c r="K56">
-        <v>0.40625</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3036,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3044,13 +3038,13 @@
         <v>97</v>
       </c>
       <c r="K57">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3062,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3070,13 +3064,13 @@
         <v>98</v>
       </c>
       <c r="K58">
-        <v>0.3714285714285714</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3088,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3096,13 +3090,13 @@
         <v>99</v>
       </c>
       <c r="K59">
-        <v>0.3404255319148936</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3114,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3122,13 +3116,13 @@
         <v>100</v>
       </c>
       <c r="K60">
-        <v>0.3278688524590164</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3140,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3174,13 +3168,13 @@
         <v>102</v>
       </c>
       <c r="K62">
-        <v>0.2361111111111111</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3192,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3200,13 +3194,13 @@
         <v>103</v>
       </c>
       <c r="K63">
-        <v>0.1485148514851485</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3218,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3226,13 +3220,13 @@
         <v>104</v>
       </c>
       <c r="K64">
-        <v>0.1450381679389313</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3244,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3252,25 +3246,25 @@
         <v>105</v>
       </c>
       <c r="K65">
-        <v>0.1267942583732057</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L65">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>365</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3278,13 +3272,13 @@
         <v>106</v>
       </c>
       <c r="K66">
-        <v>0.1105769230769231</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L66">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3296,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>370</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3304,13 +3298,13 @@
         <v>107</v>
       </c>
       <c r="K67">
-        <v>0.103030303030303</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3322,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3330,13 +3324,13 @@
         <v>108</v>
       </c>
       <c r="K68">
-        <v>0.1023622047244094</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3348,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3356,25 +3350,25 @@
         <v>109</v>
       </c>
       <c r="K69">
-        <v>0.09813084112149532</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>193</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3382,13 +3376,13 @@
         <v>110</v>
       </c>
       <c r="K70">
-        <v>0.0880503144654088</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3400,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>145</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3408,13 +3402,13 @@
         <v>111</v>
       </c>
       <c r="K71">
-        <v>0.08588957055214724</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3434,13 +3428,13 @@
         <v>112</v>
       </c>
       <c r="K72">
-        <v>0.08108108108108109</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3452,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3460,13 +3454,13 @@
         <v>113</v>
       </c>
       <c r="K73">
-        <v>0.08053691275167785</v>
+        <v>0.07951070336391437</v>
       </c>
       <c r="L73">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M73">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3478,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>822</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3486,13 +3480,13 @@
         <v>114</v>
       </c>
       <c r="K74">
-        <v>0.07906976744186046</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3504,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>198</v>
+        <v>832</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3512,13 +3506,13 @@
         <v>115</v>
       </c>
       <c r="K75">
-        <v>0.07391304347826087</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3530,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3538,25 +3532,25 @@
         <v>116</v>
       </c>
       <c r="K76">
-        <v>0.06748466257668712</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M76">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>304</v>
+        <v>850</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3564,25 +3558,25 @@
         <v>117</v>
       </c>
       <c r="K77">
-        <v>0.05771365149833518</v>
+        <v>0.04930662557781202</v>
       </c>
       <c r="L77">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M77">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>849</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3590,25 +3584,25 @@
         <v>118</v>
       </c>
       <c r="K78">
-        <v>0.04868913857677903</v>
+        <v>0.04739884393063584</v>
       </c>
       <c r="L78">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M78">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>254</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3616,25 +3610,25 @@
         <v>119</v>
       </c>
       <c r="K79">
-        <v>0.0478395061728395</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M79">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>617</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3642,25 +3636,25 @@
         <v>120</v>
       </c>
       <c r="K80">
-        <v>0.04545454545454546</v>
+        <v>0.04073033707865169</v>
       </c>
       <c r="L80">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="M80">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>294</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3668,25 +3662,25 @@
         <v>121</v>
       </c>
       <c r="K81">
-        <v>0.03653395784543326</v>
+        <v>0.03909465020576132</v>
       </c>
       <c r="L81">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M81">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="N81">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>2057</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3694,25 +3688,25 @@
         <v>122</v>
       </c>
       <c r="K82">
-        <v>0.03497942386831276</v>
+        <v>0.02587991718426501</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>469</v>
+        <v>941</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3720,25 +3714,25 @@
         <v>123</v>
       </c>
       <c r="K83">
-        <v>0.03460207612456748</v>
+        <v>0.01743060038734668</v>
       </c>
       <c r="L83">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M83">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>837</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3746,25 +3740,25 @@
         <v>124</v>
       </c>
       <c r="K84">
-        <v>0.02066115702479339</v>
+        <v>0.01120689655172414</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>948</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3772,77 +3766,25 @@
         <v>125</v>
       </c>
       <c r="K85">
-        <v>0.02065182316876412</v>
+        <v>0.01034158570980884</v>
       </c>
       <c r="L85">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M85">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N85">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="O85">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K86">
-        <v>0.01222570532915361</v>
-      </c>
-      <c r="L86">
-        <v>39</v>
-      </c>
-      <c r="M86">
-        <v>50</v>
-      </c>
-      <c r="N86">
-        <v>0.78</v>
-      </c>
-      <c r="O86">
-        <v>0.22</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K87">
-        <v>0.01122625215889465</v>
-      </c>
-      <c r="L87">
-        <v>13</v>
-      </c>
-      <c r="M87">
-        <v>16</v>
-      </c>
-      <c r="N87">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O87">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1145</v>
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
